--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_18.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>754764.5023856668</v>
+        <v>763457.8286733087</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7511591.117656382</v>
+        <v>7511591.117656381</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,25 +701,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>82.69355372315668</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770591</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -899,70 +899,70 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>40.47627913313517</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>14.22717944117453</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>70.64856914772001</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1069,16 +1069,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>33.80371536444981</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1212,28 +1212,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>62.88143347497287</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>103.9917919211018</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>115.7227941212552</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,13 +1376,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>327.0451232326991</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>123.9560299230995</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1458,16 +1458,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>143.3680272159724</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>99.25652170007392</v>
       </c>
       <c r="T12" t="n">
         <v>197.5472709665096</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G13" t="n">
-        <v>163.3565097727587</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J13" t="n">
         <v>54.86879163620181</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>226.5674513251595</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>135.1052732557914</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
-        <v>60.36693997173244</v>
+        <v>82.28018995116467</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G16" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
         <v>139.0783256288916</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.4823903954586188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27.83416391026586</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>117.889549819912</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
@@ -1926,7 +1926,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>66.12942426949597</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1941,7 +1941,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>45.56224815806301</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>43.12240526463283</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>88.59832967195071</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>91.33909546043012</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>23.5339302720436</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,22 +2126,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2160,25 +2160,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>102.1437862491769</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>104.262613881998</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>43.03218749909109</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>228.4010902861368</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,19 +2324,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>364.2241477303516</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,25 +2363,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>339.4584289304502</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2406,16 +2406,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>91.6867458199809</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>159.6212195484502</v>
@@ -2460,10 +2460,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>108.2159916811118</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>115.9274873119629</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>4.721827934905576</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>66.23167121454978</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>87.62180566995056</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2485578939812</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>123.6077575056603</v>
       </c>
       <c r="E27" t="n">
-        <v>127.1896964218135</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2649,10 +2649,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
         <v>197.5472709665096</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>91.35315769505162</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>16.83786409935544</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>121.7448846724985</v>
+        <v>148.5604767491482</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2871,19 +2871,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>15.4024934946316</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.1687405577497</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
         <v>105.9637990594094</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
         <v>159.6212195484502</v>
@@ -2934,7 +2934,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2953,19 +2953,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>53.20734219557368</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>44.82517720312399</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,22 +3074,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>179.8684248356467</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>338.9170346275637</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3117,13 +3117,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>60.66251974394748</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
         <v>67.03858805571426</v>
@@ -3162,10 +3162,10 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>95.62025615464796</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3205,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R34" t="n">
-        <v>13.87222205719629</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
-        <v>214.5288682289405</v>
+        <v>167.9289512464142</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3266,25 +3266,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>325.4540499811592</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>78.4309406083425</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3348,10 +3348,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>101.6323748713285</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3363,7 +3363,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>129.1931035079724</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>111.060750249129</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3475,16 +3475,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>50.15718953603344</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>35.3482216700728</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>373.3493399439023</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
         <v>181.3631617334038</v>
@@ -3557,19 +3557,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3585,13 +3585,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>136.6941370086349</v>
@@ -3600,7 +3600,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -3642,13 +3642,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>200.2183885070093</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>156.5819542946489</v>
       </c>
     </row>
     <row r="40">
@@ -3715,19 +3715,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>89.14352724124579</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>88.90986270619138</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3749,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>300.6603177938053</v>
       </c>
       <c r="H41" t="n">
-        <v>216.9605564912071</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
         <v>163.6851955497072</v>
@@ -3785,16 +3785,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3828,10 +3828,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>116.2316296713669</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
         <v>105.9637990594094</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U42" t="n">
         <v>225.8986597023843</v>
@@ -3940,19 +3940,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R43" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
-        <v>116.1611518470178</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>147.3472002825671</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>39.51813827963464</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>330.3883839606187</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4059,16 +4059,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>78.70529233151301</v>
       </c>
       <c r="H45" t="n">
         <v>105.9637990594094</v>
@@ -4116,10 +4116,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>94.38897766723555</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>45.0558121838593</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>43.12240526463285</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V2" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="G3" t="n">
         <v>19.28114311021272</v>
@@ -4410,22 +4410,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4440,19 +4440,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V3" t="n">
-        <v>298.4948343740486</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W3" t="n">
-        <v>55.04605772994853</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X3" t="n">
-        <v>55.04605772994853</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y3" t="n">
-        <v>55.04605772994853</v>
+        <v>102.8099852548154</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
         <v>136.0777814360265</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>124.7057932302607</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>124.7057932302607</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>124.7057932302607</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>124.7057932302607</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>124.7057932302607</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>124.7057932302607</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4674,22 +4674,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X6" t="n">
-        <v>90.64333416851576</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>292.9211302503287</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E8" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4829,25 +4829,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>196.166878172303</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>82.7977425798823</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4908,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1592.28953067257</v>
+        <v>377.243605767603</v>
       </c>
       <c r="C11" t="n">
-        <v>1592.28953067257</v>
+        <v>377.243605767603</v>
       </c>
       <c r="D11" t="n">
-        <v>1592.28953067257</v>
+        <v>377.243605767603</v>
       </c>
       <c r="E11" t="n">
-        <v>1206.501278074326</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F11" t="n">
-        <v>795.5153732847182</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G11" t="n">
         <v>377.243605767603</v>
@@ -5042,10 +5042,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L11" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M11" t="n">
         <v>1190.549107376119</v>
@@ -5066,25 +5066,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T11" t="n">
-        <v>2344.749822082216</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U11" t="n">
-        <v>2090.963399967084</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V11" t="n">
-        <v>2090.963399967084</v>
+        <v>1610.5090625082</v>
       </c>
       <c r="W11" t="n">
-        <v>1965.75528893365</v>
+        <v>1257.740407238086</v>
       </c>
       <c r="X11" t="n">
-        <v>1592.28953067257</v>
+        <v>884.2746489770059</v>
       </c>
       <c r="Y11" t="n">
-        <v>1592.28953067257</v>
+        <v>494.1353170011942</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>622.1327649551154</v>
+        <v>683.1072072262029</v>
       </c>
       <c r="C12" t="n">
-        <v>447.6797356739884</v>
+        <v>508.654177945076</v>
       </c>
       <c r="D12" t="n">
-        <v>298.7453260127371</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="E12" t="n">
-        <v>298.7453260127371</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="F12" t="n">
-        <v>153.9291369056942</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G12" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H12" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L12" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M12" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N12" t="n">
         <v>1486.172378671464</v>
@@ -5145,25 +5145,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2123.072528197426</v>
+        <v>2184.046970468514</v>
       </c>
       <c r="T12" t="n">
-        <v>1923.529830251457</v>
+        <v>1984.504272522545</v>
       </c>
       <c r="U12" t="n">
-        <v>1695.349365905614</v>
+        <v>1756.323808176702</v>
       </c>
       <c r="V12" t="n">
-        <v>1460.197257673872</v>
+        <v>1521.171699944959</v>
       </c>
       <c r="W12" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.934343216758</v>
       </c>
       <c r="X12" t="n">
-        <v>998.1084007401373</v>
+        <v>1059.082843011225</v>
       </c>
       <c r="Y12" t="n">
-        <v>790.3481019751835</v>
+        <v>851.322544246271</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F13" t="n">
-        <v>566.78431370192</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G13" t="n">
         <v>401.7777381738809</v>
@@ -5200,7 +5200,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L13" t="n">
         <v>194.9121237200978</v>
@@ -5218,31 +5218,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>569.1532220255365</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C14" t="n">
-        <v>569.1532220255365</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D14" t="n">
-        <v>569.1532220255365</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E14" t="n">
-        <v>183.3649694272922</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F14" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G14" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H14" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K14" t="n">
         <v>392.9020949275675</v>
       </c>
       <c r="L14" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5300,28 +5300,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U14" t="n">
-        <v>2016.589854876113</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V14" t="n">
-        <v>1685.526967532542</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W14" t="n">
-        <v>1332.758312262428</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X14" t="n">
-        <v>959.2925540013482</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y14" t="n">
-        <v>569.1532220255365</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="15">
@@ -5364,28 +5364,28 @@
         <v>705.6153558007836</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P15" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T15" t="n">
-        <v>2123.072528197426</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U15" t="n">
         <v>2062.095821155272</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>411.9391157507848</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9391157507848</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9391157507848</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9391157507848</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9391157507848</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G16" t="n">
-        <v>242.8011754972942</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H16" t="n">
         <v>242.8011754972942</v>
@@ -5455,31 +5455,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U16" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V16" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W16" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X16" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y16" t="n">
-        <v>411.9391157507848</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>212.2335778049849</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="C17" t="n">
-        <v>212.2335778049849</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="D17" t="n">
-        <v>212.2335778049849</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="E17" t="n">
-        <v>212.2335778049849</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="F17" t="n">
-        <v>212.2335778049849</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="G17" t="n">
-        <v>212.2335778049849</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2335778049849</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
@@ -5537,28 +5537,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2161.554709220192</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T17" t="n">
-        <v>1941.571949851771</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U17" t="n">
-        <v>1687.785527736638</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V17" t="n">
-        <v>1356.722640393067</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W17" t="n">
-        <v>1003.953985122953</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X17" t="n">
-        <v>630.4882268618733</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y17" t="n">
-        <v>240.3488948860615</v>
+        <v>165.9753497950908</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>682.5765037404603</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C18" t="n">
-        <v>508.1234744593334</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D18" t="n">
-        <v>359.1890647980821</v>
+        <v>380.8823374219722</v>
       </c>
       <c r="E18" t="n">
-        <v>199.9516097926266</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="F18" t="n">
-        <v>199.9516097926266</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G18" t="n">
-        <v>199.9516097926266</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H18" t="n">
-        <v>92.91746932857666</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L18" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M18" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S18" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T18" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U18" t="n">
-        <v>1755.793104690959</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V18" t="n">
-        <v>1520.640996459217</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W18" t="n">
-        <v>1266.403639731015</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X18" t="n">
-        <v>1058.552139525482</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y18" t="n">
-        <v>850.7918407605284</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="D19" t="n">
-        <v>46.89499644164432</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="E19" t="n">
         <v>46.89499644164432</v>
@@ -5698,25 +5698,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>391.0727469424309</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U19" t="n">
-        <v>391.0727469424309</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V19" t="n">
-        <v>136.388258736544</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>90.45298155743507</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>866.3849245750996</v>
+        <v>621.7934771426671</v>
       </c>
       <c r="C20" t="n">
-        <v>497.4224076346879</v>
+        <v>621.7934771426671</v>
       </c>
       <c r="D20" t="n">
-        <v>139.1567090279374</v>
+        <v>621.7934771426671</v>
       </c>
       <c r="E20" t="n">
-        <v>46.89499644164432</v>
+        <v>236.0052245444229</v>
       </c>
       <c r="F20" t="n">
-        <v>46.89499644164432</v>
+        <v>236.0052245444229</v>
       </c>
       <c r="G20" t="n">
-        <v>46.89499644164432</v>
+        <v>236.0052245444229</v>
       </c>
       <c r="H20" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L20" t="n">
         <v>762.5916738244549</v>
@@ -5774,28 +5774,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T20" t="n">
-        <v>2270.376276991246</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U20" t="n">
-        <v>2016.589854876113</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V20" t="n">
-        <v>2016.589854876113</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W20" t="n">
-        <v>2016.589854876113</v>
+        <v>1771.99840744368</v>
       </c>
       <c r="X20" t="n">
-        <v>1643.124096615033</v>
+        <v>1398.532649182601</v>
       </c>
       <c r="Y20" t="n">
-        <v>1252.984764639221</v>
+        <v>1008.393317206789</v>
       </c>
     </row>
     <row r="21">
@@ -5808,22 +5808,22 @@
         <v>622.1327649551154</v>
       </c>
       <c r="C21" t="n">
-        <v>622.1327649551154</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D21" t="n">
-        <v>518.9572232892801</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E21" t="n">
-        <v>359.7197682838247</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
@@ -5832,19 +5832,19 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L21" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O21" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P21" t="n">
         <v>2344.749822082216</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.36185250133229</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C22" t="n">
-        <v>90.36185250133229</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D22" t="n">
-        <v>90.36185250133229</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E22" t="n">
-        <v>90.36185250133229</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F22" t="n">
-        <v>90.36185250133229</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G22" t="n">
-        <v>90.36185250133229</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H22" t="n">
-        <v>90.36185250133229</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I22" t="n">
         <v>46.89499644164432</v>
@@ -5929,31 +5929,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R22" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S22" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="T22" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="U22" t="n">
-        <v>607.7685734363102</v>
+        <v>277.6031684478431</v>
       </c>
       <c r="V22" t="n">
-        <v>607.7685734363102</v>
+        <v>277.6031684478431</v>
       </c>
       <c r="W22" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X22" t="n">
-        <v>90.36185250133229</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.36185250133229</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>939.4617933521472</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="C23" t="n">
-        <v>570.4992764117354</v>
+        <v>1602.321546880725</v>
       </c>
       <c r="D23" t="n">
-        <v>212.2335778049849</v>
+        <v>1244.055848273974</v>
       </c>
       <c r="E23" t="n">
-        <v>212.2335778049849</v>
+        <v>876.1526687483666</v>
       </c>
       <c r="F23" t="n">
-        <v>212.2335778049849</v>
+        <v>465.1667639587591</v>
       </c>
       <c r="G23" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164391</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164391</v>
       </c>
       <c r="I23" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164391</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915531</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L23" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M23" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N23" t="n">
         <v>1610.799342072557</v>
@@ -6008,31 +6008,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S23" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T23" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U23" t="n">
-        <v>1613.411982645668</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V23" t="n">
-        <v>1282.349095302097</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W23" t="n">
-        <v>939.4617933521472</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X23" t="n">
-        <v>939.4617933521472</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y23" t="n">
-        <v>939.4617933521472</v>
+        <v>1971.284063821136</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C24" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D24" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E24" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F24" t="n">
-        <v>139.5078710072816</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G24" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H24" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L24" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.568096156132</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O24" t="n">
-        <v>2102.280527752458</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P24" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S24" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T24" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U24" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V24" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W24" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X24" t="n">
-        <v>998.1084007401373</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="Y24" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.89499644164432</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="C25" t="n">
-        <v>46.89499644164432</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="D25" t="n">
-        <v>46.89499644164432</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="E25" t="n">
-        <v>46.89499644164432</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="F25" t="n">
-        <v>46.89499644164432</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="G25" t="n">
-        <v>46.89499644164432</v>
+        <v>210.6410822848024</v>
       </c>
       <c r="H25" t="n">
-        <v>46.89499644164432</v>
+        <v>51.66451960821561</v>
       </c>
       <c r="I25" t="n">
         <v>46.89499644164432</v>
@@ -6169,28 +6169,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R25" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T25" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U25" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V25" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W25" t="n">
-        <v>163.9934684739301</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X25" t="n">
-        <v>163.9934684739301</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="Y25" t="n">
-        <v>163.9934684739301</v>
+        <v>379.7790225382929</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1226.812142581545</v>
+        <v>1252.984764639221</v>
       </c>
       <c r="C26" t="n">
-        <v>857.8496256411338</v>
+        <v>884.0222476988097</v>
       </c>
       <c r="D26" t="n">
-        <v>499.5839270343833</v>
+        <v>884.0222476988097</v>
       </c>
       <c r="E26" t="n">
-        <v>113.7956744361391</v>
+        <v>884.0222476988097</v>
       </c>
       <c r="F26" t="n">
-        <v>46.89499644164432</v>
+        <v>884.0222476988097</v>
       </c>
       <c r="G26" t="n">
-        <v>46.89499644164432</v>
+        <v>465.7504801816945</v>
       </c>
       <c r="H26" t="n">
-        <v>46.89499644164432</v>
+        <v>135.4018708557358</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
@@ -6251,25 +6251,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S26" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T26" t="n">
-        <v>1867.1984047608</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U26" t="n">
-        <v>1613.411982645667</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="V26" t="n">
-        <v>1613.411982645667</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="W26" t="n">
-        <v>1613.411982645667</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="X26" t="n">
-        <v>1613.411982645667</v>
+        <v>1643.124096615033</v>
       </c>
       <c r="Y26" t="n">
-        <v>1613.411982645667</v>
+        <v>1252.984764639221</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>783.3663200545602</v>
+        <v>790.3481019751835</v>
       </c>
       <c r="C27" t="n">
-        <v>608.9132907734332</v>
+        <v>790.3481019751835</v>
       </c>
       <c r="D27" t="n">
-        <v>459.978881112182</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E27" t="n">
-        <v>331.5044402820673</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F27" t="n">
-        <v>184.9698823089523</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G27" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H27" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
@@ -6306,22 +6306,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L27" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M27" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N27" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O27" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P27" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6330,25 +6330,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S27" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>2084.763385350902</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>1856.582921005059</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1621.430812773317</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W27" t="n">
-        <v>1367.193456045115</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>1159.341955839582</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y27" t="n">
-        <v>951.5816570746283</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2344.749822082216</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C28" t="n">
-        <v>2344.749822082216</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D28" t="n">
-        <v>2252.473905218528</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E28" t="n">
-        <v>2252.473905218528</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F28" t="n">
-        <v>2252.473905218528</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G28" t="n">
-        <v>2083.335964965037</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H28" t="n">
-        <v>1924.359402288451</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I28" t="n">
         <v>1783.87624508755</v>
@@ -6415,19 +6415,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="U28" t="n">
-        <v>2344.749822082216</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="V28" t="n">
-        <v>2344.749822082216</v>
+        <v>1800.884188622252</v>
       </c>
       <c r="W28" t="n">
-        <v>2344.749822082216</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="X28" t="n">
-        <v>2344.749822082216</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y28" t="n">
-        <v>2344.749822082216</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1164.47789022513</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="C29" t="n">
-        <v>795.5153732847182</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="D29" t="n">
-        <v>795.5153732847182</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="E29" t="n">
-        <v>795.5153732847182</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="F29" t="n">
-        <v>795.5153732847182</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G29" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H29" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L29" t="n">
         <v>762.591673824455</v>
@@ -6482,31 +6482,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R29" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S29" t="n">
-        <v>2221.775191099895</v>
+        <v>2194.688734456814</v>
       </c>
       <c r="T29" t="n">
-        <v>2221.775191099895</v>
+        <v>1974.705975088393</v>
       </c>
       <c r="U29" t="n">
-        <v>2221.775191099895</v>
+        <v>1720.91955297326</v>
       </c>
       <c r="V29" t="n">
-        <v>1890.712303756324</v>
+        <v>1720.91955297326</v>
       </c>
       <c r="W29" t="n">
-        <v>1537.94364848621</v>
+        <v>1720.91955297326</v>
       </c>
       <c r="X29" t="n">
-        <v>1164.47789022513</v>
+        <v>1347.453794712181</v>
       </c>
       <c r="Y29" t="n">
-        <v>1164.47789022513</v>
+        <v>1347.453794712181</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>682.5765037404603</v>
+        <v>829.9842651606482</v>
       </c>
       <c r="C30" t="n">
-        <v>508.1234744593334</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D30" t="n">
-        <v>359.1890647980821</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E30" t="n">
-        <v>359.1890647980821</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F30" t="n">
-        <v>359.1890647980821</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G30" t="n">
         <v>221.6448824165167</v>
@@ -6540,22 +6540,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K30" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L30" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M30" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N30" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O30" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P30" t="n">
         <v>2344.749822082216</v>
@@ -6564,28 +6564,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S30" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T30" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U30" t="n">
-        <v>1755.793104690959</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V30" t="n">
-        <v>1520.640996459217</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W30" t="n">
-        <v>1266.403639731015</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X30" t="n">
-        <v>1058.552139525482</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="Y30" t="n">
-        <v>850.7918407605284</v>
+        <v>998.1996021807163</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>386.9759942927801</v>
+        <v>566.78431370192</v>
       </c>
       <c r="C31" t="n">
-        <v>386.9759942927801</v>
+        <v>566.78431370192</v>
       </c>
       <c r="D31" t="n">
-        <v>386.9759942927801</v>
+        <v>416.6676742895843</v>
       </c>
       <c r="E31" t="n">
-        <v>239.062900710387</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="F31" t="n">
-        <v>92.17295321247664</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G31" t="n">
-        <v>92.17295321247664</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H31" t="n">
         <v>46.89499644164432</v>
@@ -6640,31 +6640,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q31" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R31" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S31" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="T31" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="U31" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="V31" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="W31" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="X31" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="Y31" t="n">
-        <v>386.9759942927801</v>
+        <v>566.78431370192</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1212.631670769908</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="C32" t="n">
-        <v>843.6691538294961</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="D32" t="n">
-        <v>843.6691538294961</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E32" t="n">
-        <v>457.8809012312519</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F32" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G32" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
@@ -6704,10 +6704,10 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L32" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6722,28 +6722,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S32" t="n">
-        <v>2161.554709220192</v>
+        <v>2088.690999379481</v>
       </c>
       <c r="T32" t="n">
-        <v>1941.571949851771</v>
+        <v>2088.690999379481</v>
       </c>
       <c r="U32" t="n">
-        <v>1941.571949851771</v>
+        <v>2088.690999379481</v>
       </c>
       <c r="V32" t="n">
-        <v>1941.571949851771</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="W32" t="n">
-        <v>1599.231510834029</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="X32" t="n">
-        <v>1599.231510834029</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="Y32" t="n">
-        <v>1599.231510834029</v>
+        <v>1757.628112035911</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C33" t="n">
-        <v>622.1327649551154</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D33" t="n">
-        <v>473.1983552938641</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E33" t="n">
-        <v>313.9609002884086</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F33" t="n">
-        <v>313.9609002884086</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G33" t="n">
-        <v>175.8860144211006</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H33" t="n">
         <v>114.6107419524668</v>
@@ -6789,13 +6789,13 @@
         <v>1128.843878304552</v>
       </c>
       <c r="N33" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O33" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P33" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
@@ -6810,19 +6810,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.349365905614</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W33" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X33" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="C34" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="D34" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="E34" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="F34" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="G34" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="H34" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="I34" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="J34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K34" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L34" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M34" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N34" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O34" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q34" t="n">
-        <v>566.78431370192</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="R34" t="n">
-        <v>552.7719681896006</v>
+        <v>2149.407627422406</v>
       </c>
       <c r="S34" t="n">
-        <v>336.0761416957212</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="T34" t="n">
-        <v>336.0761416957212</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="U34" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="V34" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="W34" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="X34" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1700.5813240651</v>
+        <v>853.3463843204656</v>
       </c>
       <c r="C35" t="n">
-        <v>1700.5813240651</v>
+        <v>484.3838673800539</v>
       </c>
       <c r="D35" t="n">
-        <v>1700.5813240651</v>
+        <v>126.1181687733034</v>
       </c>
       <c r="E35" t="n">
-        <v>1371.839859437666</v>
+        <v>126.1181687733034</v>
       </c>
       <c r="F35" t="n">
-        <v>960.8539546480588</v>
+        <v>126.1181687733034</v>
       </c>
       <c r="G35" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
         <v>762.5916738244549</v>
@@ -6965,22 +6965,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T35" t="n">
-        <v>2087.181164129222</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U35" t="n">
-        <v>2087.181164129222</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V35" t="n">
-        <v>2087.181164129222</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="W35" t="n">
-        <v>2087.181164129222</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="X35" t="n">
-        <v>2087.181164129222</v>
+        <v>1239.946224384587</v>
       </c>
       <c r="Y35" t="n">
-        <v>2087.181164129222</v>
+        <v>1239.946224384587</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>921.1634746939509</v>
+        <v>783.3663200545602</v>
       </c>
       <c r="C36" t="n">
-        <v>746.7104454128239</v>
+        <v>608.9132907734332</v>
       </c>
       <c r="D36" t="n">
-        <v>597.7760357515726</v>
+        <v>608.9132907734332</v>
       </c>
       <c r="E36" t="n">
-        <v>438.5385807461172</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F36" t="n">
-        <v>292.0040227730022</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G36" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H36" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L36" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O36" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P36" t="n">
         <v>2193.291384540003</v>
@@ -7038,28 +7038,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S36" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T36" t="n">
-        <v>2145.207124136247</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U36" t="n">
-        <v>1917.026659790404</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V36" t="n">
-        <v>1681.874551558662</v>
+        <v>1621.430812773317</v>
       </c>
       <c r="W36" t="n">
-        <v>1427.63719483046</v>
+        <v>1367.193456045115</v>
       </c>
       <c r="X36" t="n">
-        <v>1297.139110478973</v>
+        <v>1159.341955839582</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.378811714019</v>
+        <v>951.5816570746283</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.89499644164432</v>
+        <v>159.0775724508656</v>
       </c>
       <c r="C37" t="n">
         <v>46.89499644164432</v>
@@ -7123,22 +7123,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T37" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V37" t="n">
-        <v>557.1047456221351</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W37" t="n">
-        <v>267.6875755851744</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="X37" t="n">
-        <v>267.6875755851744</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.89499644164432</v>
+        <v>159.0775724508656</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1297.646195760826</v>
+        <v>754.3641511654841</v>
       </c>
       <c r="C38" t="n">
-        <v>1261.940921346611</v>
+        <v>754.3641511654841</v>
       </c>
       <c r="D38" t="n">
-        <v>1261.940921346611</v>
+        <v>754.3641511654841</v>
       </c>
       <c r="E38" t="n">
-        <v>876.152668748367</v>
+        <v>754.3641511654841</v>
       </c>
       <c r="F38" t="n">
-        <v>465.1667639587595</v>
+        <v>754.3641511654841</v>
       </c>
       <c r="G38" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H38" t="n">
         <v>46.89499644164432</v>
@@ -7196,28 +7196,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S38" t="n">
-        <v>2161.554709220192</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T38" t="n">
-        <v>1941.571949851771</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U38" t="n">
-        <v>1687.785527736638</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V38" t="n">
-        <v>1687.785527736638</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="W38" t="n">
-        <v>1687.785527736638</v>
+        <v>1514.429749490686</v>
       </c>
       <c r="X38" t="n">
-        <v>1687.785527736638</v>
+        <v>1140.963991229606</v>
       </c>
       <c r="Y38" t="n">
-        <v>1297.646195760826</v>
+        <v>1140.963991229606</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>842.3446622316584</v>
+        <v>839.9448105435223</v>
       </c>
       <c r="C39" t="n">
-        <v>667.8916329505314</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="D39" t="n">
-        <v>518.9572232892801</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E39" t="n">
-        <v>359.7197682838247</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F39" t="n">
         <v>359.7197682838247</v>
@@ -7251,25 +7251,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L39" t="n">
-        <v>645.6158192373777</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M39" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N39" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O39" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P39" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
@@ -7290,13 +7290,13 @@
         <v>1460.197257673872</v>
       </c>
       <c r="W39" t="n">
-        <v>1257.956461202145</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X39" t="n">
-        <v>1050.104960996612</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y39" t="n">
-        <v>842.3446622316584</v>
+        <v>839.9448105435223</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L40" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N40" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O40" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U40" t="n">
-        <v>318.5874281822333</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V40" t="n">
-        <v>318.5874281822333</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W40" t="n">
-        <v>318.5874281822333</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="X40" t="n">
-        <v>228.543461271884</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="Y40" t="n">
-        <v>228.543461271884</v>
+        <v>1965.52470991779</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1260.643327375553</v>
+        <v>1215.241994772169</v>
       </c>
       <c r="C41" t="n">
-        <v>1260.643327375553</v>
+        <v>846.279477831757</v>
       </c>
       <c r="D41" t="n">
-        <v>1260.643327375553</v>
+        <v>846.279477831757</v>
       </c>
       <c r="E41" t="n">
-        <v>1260.643327375553</v>
+        <v>846.279477831757</v>
       </c>
       <c r="F41" t="n">
-        <v>849.6574225859456</v>
+        <v>846.279477831757</v>
       </c>
       <c r="G41" t="n">
-        <v>431.3856550688304</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H41" t="n">
         <v>212.2335778049849</v>
@@ -7433,28 +7433,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U41" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V41" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W41" t="n">
-        <v>1260.643327375553</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X41" t="n">
-        <v>1260.643327375553</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="Y41" t="n">
-        <v>1260.643327375553</v>
+        <v>1601.84183483629</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>821.6754629010848</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C42" t="n">
-        <v>647.2224336199578</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D42" t="n">
-        <v>498.2880239587065</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E42" t="n">
-        <v>339.050568953251</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F42" t="n">
-        <v>221.6448824165167</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G42" t="n">
         <v>221.6448824165167</v>
@@ -7494,46 +7494,46 @@
         <v>276.0646041288937</v>
       </c>
       <c r="L42" t="n">
-        <v>645.6158192373777</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M42" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N42" t="n">
-        <v>1640.568559592726</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O42" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P42" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T42" t="n">
-        <v>2123.072528197426</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U42" t="n">
-        <v>1894.892063851584</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V42" t="n">
-        <v>1659.739955619841</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W42" t="n">
-        <v>1405.50259889164</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X42" t="n">
-        <v>1197.651098686107</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y42" t="n">
-        <v>989.8907999211528</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="43">
@@ -7588,16 +7588,16 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R43" t="n">
-        <v>453.4106385108907</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S43" t="n">
-        <v>336.0761416957212</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="T43" t="n">
-        <v>336.0761416957212</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="U43" t="n">
         <v>46.89499644164432</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>939.4617933521472</v>
+        <v>1159.911464587051</v>
       </c>
       <c r="C44" t="n">
-        <v>570.4992764117354</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D44" t="n">
-        <v>212.2335778049849</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
@@ -7673,25 +7673,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T44" t="n">
-        <v>2047.263852735651</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U44" t="n">
-        <v>2047.263852735651</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V44" t="n">
-        <v>1716.200965392081</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W44" t="n">
-        <v>1716.200965392081</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X44" t="n">
-        <v>1716.200965392081</v>
+        <v>1936.650636626984</v>
       </c>
       <c r="Y44" t="n">
-        <v>1326.061633416269</v>
+        <v>1546.511304651172</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C45" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D45" t="n">
-        <v>665.4917812623953</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>301.1451777008733</v>
       </c>
       <c r="G45" t="n">
         <v>221.6448824165167</v>
@@ -7728,22 +7728,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L45" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M45" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N45" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7764,13 +7764,13 @@
         <v>1460.197257673872</v>
       </c>
       <c r="W45" t="n">
-        <v>1460.197257673872</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.89499644164432</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="C46" t="n">
-        <v>46.89499644164432</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="D46" t="n">
-        <v>46.89499644164432</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="E46" t="n">
-        <v>46.89499644164432</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="F46" t="n">
-        <v>46.89499644164432</v>
+        <v>232.8890750403826</v>
       </c>
       <c r="G46" t="n">
-        <v>46.89499644164432</v>
+        <v>232.8890750403826</v>
       </c>
       <c r="H46" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I46" t="n">
         <v>46.89499644164432</v>
@@ -7831,25 +7831,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>564.2105883205195</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T46" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V46" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W46" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X46" t="n">
-        <v>46.89499644164432</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.89499644164432</v>
+        <v>379.7790225382929</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2508595994748</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509598</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9012,7 +9012,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574062</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,19 +9249,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>390.8949017221348</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9495,7 +9495,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>57.08896698613911</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>101.9014378473433</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>200.8922269696948</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>307.2673352605755</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10206,7 +10206,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>57.08896698613911</v>
@@ -10437,16 +10437,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>476.3749567889587</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>162.5070303356325</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,13 +10674,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>323.3866360392488</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119838</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10899,19 +10899,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>154.2790145108656</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>476.3749567889585</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>214.8846069991543</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>315.495351085342</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>47.90390621998488</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,10 +22547,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,7 +22559,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22589,25 +22589,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.1259181763289</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22638,7 +22638,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>54.64996344005395</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22680,19 +22680,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22723,7 +22723,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22787,25 +22787,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,22 +22826,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>287.2759793369997</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22860,7 +22860,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22878,13 +22878,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>98.00826479532194</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22914,7 +22914,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22926,10 +22926,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>135.0341266295844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22957,16 +22957,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23021,25 +23021,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E8" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>381.4990221506852</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23069,7 +23069,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23100,28 +23100,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>26.5151993764422</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23148,19 +23148,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>147.7031912398178</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>267.0110475422254</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23264,13 +23264,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>225.2849387943135</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23346,16 +23346,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>1.701185177411446</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,7 +23385,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>60.36469784837628</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G13" t="n">
-        <v>4.090051078196922</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23495,25 +23495,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>138.7054404458481</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>271.77077248592</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
@@ -23549,19 +23549,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>165.5317197306519</v>
+        <v>143.6184697512197</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
         <v>214.5288682289405</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.1022629566362</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>354.8996777532147</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23750,7 +23750,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>45.7956457297952</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23814,7 +23814,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>81.31564129514278</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23829,7 +23829,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>21.47633989765125</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>103.3115573819363</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23938,19 +23938,19 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>197.9246686646403</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,13 +23969,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>290.5912746118316</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23984,10 +23984,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>303.5111929606555</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,22 +24014,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24048,25 +24048,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>45.30127931546188</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>96.04613812980048</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
@@ -24181,16 +24181,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>58.12190805045418</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,19 +24212,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>17.70622234191018</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,25 +24251,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>9.782539786962843</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24294,16 +24294,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>45.00739118865397</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24348,10 +24348,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>97.46670409619252</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>63.90449286997435</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288916</v>
+        <v>134.356497693986</v>
       </c>
       <c r="J25" t="n">
         <v>54.86879163620181</v>
@@ -24409,7 +24409,7 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
         <v>214.5288682289405</v>
@@ -24424,10 +24424,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>340.6443745271616</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>76.06338987975661</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24491,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24519,16 +24519,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>23.83730805897849</v>
       </c>
       <c r="E27" t="n">
-        <v>30.45538403358745</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24537,10 +24537,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,7 +24570,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>57.26231532316073</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J28" t="n">
         <v>54.86879163620181</v>
@@ -24655,13 +24655,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>269.6851342372356</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,10 +24677,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,19 +24728,19 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>59.61827706090533</v>
+        <v>32.80268498425562</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24759,19 +24759,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>157.3060054936841</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5253964508851823</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24822,7 +24822,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>93.22662045099548</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>112.5616198466969</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
         <v>139.0783256288916</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>152.8143555761653</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,13 +24929,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,22 +24962,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.494736897757122</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>10.32393408984933</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24996,7 +24996,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25005,13 +25005,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>45.30127931546194</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25050,10 +25050,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>137.1803309947773</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25093,10 +25093,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>138.942133518969</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>46.59991698252631</v>
       </c>
       <c r="T34" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25154,25 +25154,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>56.47632009110259</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>335.6581092336015</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,10 +25205,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25236,10 +25236,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>56.01270558407241</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25251,7 +25251,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>159.6212195484502</v>
@@ -25296,7 +25296,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>76.57988169550509</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>56.1860708494988</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25363,16 +25363,16 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
-        <v>201.9804537877946</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,25 +25388,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>329.9246701009347</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>40.73970989804167</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>163.6851955497072</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25445,19 +25445,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25473,13 +25473,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25530,13 +25530,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>51.47659465391035</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>49.10074148265551</v>
       </c>
     </row>
     <row r="40">
@@ -25567,7 +25567,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
@@ -25603,19 +25603,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>136.5661281477913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>129.6747906459034</v>
       </c>
     </row>
     <row r="41">
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25637,13 +25637,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>113.4287320481386</v>
       </c>
       <c r="H41" t="n">
-        <v>110.084566741492</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25673,16 +25673,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25716,10 +25716,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>28.83758272201696</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25752,13 +25752,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
-        <v>197.5472709665096</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25828,19 +25828,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>98.36771638192269</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.6194376234954</v>
+        <v>78.27223734092829</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25883,7 +25883,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25913,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>178.2647934951028</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>39.34271671785029</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25947,16 +25947,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>57.98884467712186</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -26004,10 +26004,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>111.3840075362419</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
-        <v>157.3867970498209</v>
+        <v>112.3309848659616</v>
       </c>
       <c r="I46" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>54.86879163620181</v>
@@ -26071,10 +26071,10 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
-        <v>171.4064629643077</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
         <v>286.2893338015361</v>
@@ -26083,10 +26083,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457120.4842963797</v>
+        <v>457120.4842963798</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>713642.728868858</v>
+        <v>713642.7288688577</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>713642.7288688577</v>
+        <v>713642.7288688576</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>713642.7288688577</v>
+        <v>713642.7288688578</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>713642.728868858</v>
+        <v>713642.7288688576</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>713642.7288688576</v>
+        <v>713642.7288688577</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>713642.7288688578</v>
+        <v>713642.728868858</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>713642.7288688577</v>
+        <v>713642.7288688578</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>713642.7288688576</v>
+        <v>713642.7288688578</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149544.6052781992</v>
+        <v>149544.6052781991</v>
       </c>
       <c r="C2" t="n">
         <v>149544.6052781992</v>
@@ -26326,10 +26326,10 @@
         <v>237938.4897877938</v>
       </c>
       <c r="G2" t="n">
+        <v>237938.4897877938</v>
+      </c>
+      <c r="H2" t="n">
         <v>237938.4897877937</v>
-      </c>
-      <c r="H2" t="n">
-        <v>237938.4897877938</v>
       </c>
       <c r="I2" t="n">
         <v>237938.4897877937</v>
@@ -26341,19 +26341,19 @@
         <v>237938.4897877937</v>
       </c>
       <c r="L2" t="n">
+        <v>237938.4897877937</v>
+      </c>
+      <c r="M2" t="n">
         <v>237938.4897877938</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>237938.4897877938</v>
+      </c>
+      <c r="O2" t="n">
+        <v>237938.4897877938</v>
+      </c>
+      <c r="P2" t="n">
         <v>237938.4897877937</v>
-      </c>
-      <c r="N2" t="n">
-        <v>237938.4897877937</v>
-      </c>
-      <c r="O2" t="n">
-        <v>237938.4897877937</v>
-      </c>
-      <c r="P2" t="n">
-        <v>237938.4897877938</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007603</v>
+        <v>86018.53382007602</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26289.91179915751</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="C4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="D4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="E4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761897</v>
       </c>
       <c r="F4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="G4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761897</v>
       </c>
       <c r="H4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="I4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="J4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="K4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="L4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="M4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="N4" t="n">
-        <v>27764.31241904687</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="O4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="P4" t="n">
-        <v>27764.31241904687</v>
+        <v>26710.01986761897</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5796.006816267727</v>
+        <v>-4788.363229729555</v>
       </c>
       <c r="C6" t="n">
-        <v>74973.42471528001</v>
+        <v>75981.06830181822</v>
       </c>
       <c r="D6" t="n">
-        <v>74973.42471528001</v>
+        <v>75981.06830181825</v>
       </c>
       <c r="E6" t="n">
-        <v>-177659.8875356524</v>
+        <v>-176605.5949842245</v>
       </c>
       <c r="F6" t="n">
-        <v>167952.4552433004</v>
+        <v>169006.7477947283</v>
       </c>
       <c r="G6" t="n">
-        <v>167952.4552433003</v>
+        <v>169006.7477947283</v>
       </c>
       <c r="H6" t="n">
-        <v>167952.4552433004</v>
+        <v>169006.7477947282</v>
       </c>
       <c r="I6" t="n">
-        <v>167952.4552433003</v>
+        <v>169006.7477947282</v>
       </c>
       <c r="J6" t="n">
-        <v>104892.5126441941</v>
+        <v>105946.805195622</v>
       </c>
       <c r="K6" t="n">
-        <v>167952.4552433003</v>
+        <v>169006.7477947282</v>
       </c>
       <c r="L6" t="n">
-        <v>167952.4552433004</v>
+        <v>169006.7477947282</v>
       </c>
       <c r="M6" t="n">
-        <v>81933.92142322428</v>
+        <v>82988.21397465227</v>
       </c>
       <c r="N6" t="n">
-        <v>167952.4552433002</v>
+        <v>169006.7477947283</v>
       </c>
       <c r="O6" t="n">
-        <v>167952.4552433003</v>
+        <v>169006.7477947283</v>
       </c>
       <c r="P6" t="n">
-        <v>167952.4552433004</v>
+        <v>169006.7477947282</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
         <v>301.9048087062786</v>
@@ -26771,7 +26771,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="N3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
         <v>301.9048087062787</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31756,7 +31756,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
@@ -31777,22 +31777,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I12" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
@@ -31847,25 +31847,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T12" t="n">
         <v>2.617457728311981</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N13" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R13" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T13" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
@@ -33910,22 +33910,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P38" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S38" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I39" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J39" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K39" t="n">
         <v>104.8606541711232</v>
@@ -33980,25 +33980,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M39" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N39" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O39" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P39" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S39" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T39" t="n">
         <v>2.617457728311981</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H40" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I40" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L40" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N40" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R40" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T40" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M11" t="n">
         <v>432.2802359107712</v>
@@ -35422,13 +35422,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K12" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35498,10 +35498,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P12" t="n">
         <v>308.4914891638518</v>
@@ -35568,13 +35568,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35583,7 +35583,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M15" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803097</v>
       </c>
       <c r="N15" t="n">
         <v>516.8936174628016</v>
@@ -35741,10 +35741,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>231.4844522093428</v>
@@ -35969,19 +35969,19 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
-        <v>405.7701329255822</v>
+        <v>402.8027153709875</v>
       </c>
       <c r="P18" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093428</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36215,7 +36215,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P21" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>231.4844522093428</v>
@@ -36452,10 +36452,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>91.93015837125802</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K27" t="n">
-        <v>167.911442166459</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36692,7 +36692,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K30" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
-        <v>373.2840556651353</v>
+        <v>309.7110456222515</v>
       </c>
       <c r="M30" t="n">
         <v>488.1091505729034</v>
@@ -36926,7 +36926,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37157,16 +37157,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N33" t="n">
-        <v>513.9261999082067</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
-        <v>308.4914891638518</v>
+        <v>152.5357508595472</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>231.4844522093428</v>
@@ -37394,13 +37394,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>516.8936174628016</v>
+        <v>360.9378791584968</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P36" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
         <v>152.98832074971</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L38" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M38" t="n">
         <v>432.2802359107712</v>
       </c>
       <c r="N38" t="n">
-        <v>424.4951865620585</v>
+        <v>424.4951865620588</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P38" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L39" t="n">
-        <v>373.2840556651353</v>
+        <v>156.7227248725416</v>
       </c>
       <c r="M39" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>513.9261999082065</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L40" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M40" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N40" t="n">
         <v>127.4430518046842</v>
@@ -37716,7 +37716,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>231.4844522093429</v>
       </c>
       <c r="L42" t="n">
-        <v>373.2840556651353</v>
+        <v>217.3283173608304</v>
       </c>
       <c r="M42" t="n">
         <v>488.1091505729034</v>
@@ -37874,10 +37874,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P42" t="n">
-        <v>305.5240716092566</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K45" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38111,10 +38111,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
